--- a/public/Format_Mata_Kuliah.xlsx
+++ b/public/Format_Mata_Kuliah.xlsx
@@ -48,8 +48,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,14 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,48 +398,49 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.7109375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="26.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>12547898</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>